--- a/BackTest/2019-10-27 BackTest XLM.xlsx
+++ b/BackTest/2019-10-27 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>72.46666666666657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -486,14 +486,20 @@
         <v>72.79999999999991</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -521,14 +527,20 @@
         <v>72.93333333333324</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -563,7 +575,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -598,7 +614,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -633,7 +653,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -668,7 +692,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -703,7 +731,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -738,7 +770,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -773,7 +809,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -808,7 +848,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -843,7 +887,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -878,7 +926,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -913,7 +965,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -948,7 +1004,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1043,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1082,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1121,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1088,7 +1160,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1123,7 +1199,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,7 +1238,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1193,7 +1277,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1316,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1355,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1394,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1433,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1472,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1511,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1550,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1589,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1628,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1667,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1706,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1613,7 +1745,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1648,7 +1784,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1683,7 +1823,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1718,7 +1862,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1753,7 +1901,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1788,7 +1940,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1823,7 +1979,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1858,7 +2018,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1893,7 +2057,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1928,7 +2096,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +2135,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2174,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2033,7 +2213,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +2252,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2291,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2330,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2369,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2408,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2447,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2486,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2525,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2564,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2603,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2642,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2681,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2488,7 +2720,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2759,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2798,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2837,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2628,7 +2876,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2908,20 @@
         <v>72.46666666666646</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2698,7 +2956,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2726,14 +2988,20 @@
         <v>72.49999999999982</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +3029,20 @@
         <v>72.53333333333315</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +3070,20 @@
         <v>72.63333333333316</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +3118,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +3157,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +3196,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3235,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3274,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3013,7 +3313,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3048,7 +3352,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3391,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3118,7 +3430,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3469,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3508,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3547,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3258,7 +3586,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3625,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3664,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3703,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3742,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3781,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3820,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3859,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3898,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3937,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3976,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +4015,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +4054,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +4093,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +4132,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +4171,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +4210,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +4249,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +4288,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4327,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4366,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4405,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4444,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4483,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4522,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4561,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4600,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4639,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4678,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4717,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4756,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4795,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4834,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4873,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4912,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4951,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4990,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +5029,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +5068,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +5107,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +5146,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +5185,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5224,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +5263,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +5302,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +5341,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5380,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5419,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5458,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5497,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5536,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5575,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5614,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5653,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5692,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5731,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5770,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5809,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5848,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5887,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5926,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5965,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +6004,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +6043,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +6082,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +6121,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +6160,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6199,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +6238,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +6277,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +6316,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +6355,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +6394,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5806,14 +6426,20 @@
         <v>72.43333333333315</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +6474,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6513,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6552,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6591,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6630,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6669,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6708,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6747,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6786,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6825,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6864,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6903,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6942,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6981,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +7020,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +7059,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +7098,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +7137,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +7176,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +7215,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +7254,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +7293,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +7332,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +7371,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +7410,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +7449,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7488,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7527,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7566,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7605,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7644,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7683,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7722,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6996,18 +7754,18 @@
         <v>72.19999999999983</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K189" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7035,20 +7793,16 @@
         <v>72.19999999999983</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K190" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -7078,17 +7832,13 @@
         <v>72.19999999999983</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K191" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7121,17 +7871,13 @@
         <v>72.19999999999983</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K192" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7164,17 +7910,13 @@
         <v>72.19999999999983</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K193" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,17 +7949,13 @@
         <v>72.19999999999983</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K194" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7250,17 +7988,13 @@
         <v>72.19999999999983</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K195" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7293,17 +8027,13 @@
         <v>72.19999999999983</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K196" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,17 +8066,13 @@
         <v>72.1666666666665</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K197" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7379,17 +8105,13 @@
         <v>72.1666666666665</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K198" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7430,9 +8152,7 @@
       <c r="J199" t="n">
         <v>72.2</v>
       </c>
-      <c r="K199" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,17 +8185,13 @@
         <v>72.16666666666649</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K200" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,17 +8224,13 @@
         <v>72.1666666666665</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K201" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,17 +8263,13 @@
         <v>72.13333333333316</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K202" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7594,17 +8302,13 @@
         <v>72.13333333333314</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K203" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,17 +8341,13 @@
         <v>72.09999999999981</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>72</v>
-      </c>
-      <c r="K204" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7686,9 +8386,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7721,17 +8419,13 @@
         <v>72.09999999999981</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K206" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7764,17 +8458,13 @@
         <v>72.06666666666646</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>72</v>
-      </c>
-      <c r="K207" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,17 +8497,13 @@
         <v>72.03333333333312</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>72</v>
-      </c>
-      <c r="K208" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7850,17 +8536,13 @@
         <v>72.06666666666646</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K209" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7893,17 +8575,13 @@
         <v>72.0999999999998</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K210" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7936,17 +8614,13 @@
         <v>72.13333333333314</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K211" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7979,17 +8653,13 @@
         <v>72.09999999999981</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K212" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8022,17 +8692,13 @@
         <v>72.13333333333314</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K213" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8065,17 +8731,13 @@
         <v>72.23333333333315</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K214" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8108,17 +8770,13 @@
         <v>72.29999999999981</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K215" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8151,17 +8809,13 @@
         <v>72.33333333333314</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K216" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8194,17 +8848,13 @@
         <v>72.33333333333313</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="K217" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8237,17 +8887,13 @@
         <v>72.39999999999981</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K218" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8280,17 +8926,13 @@
         <v>72.43333333333315</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K219" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8323,17 +8965,13 @@
         <v>72.53333333333315</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K220" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8372,9 +9010,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8413,9 +9049,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +9088,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8495,9 +9127,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8536,9 +9166,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8577,9 +9205,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8618,9 +9244,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8656,20 +9280,16 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8697,17 +9317,11 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8741,14 +9355,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8782,14 +9390,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8823,14 +9425,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8864,14 +9460,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8905,14 +9495,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8946,14 +9530,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8987,14 +9565,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9028,14 +9600,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9069,14 +9635,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9110,14 +9670,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9151,14 +9705,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9192,14 +9740,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9233,14 +9775,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9274,14 +9810,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9315,14 +9845,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9356,14 +9880,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9397,14 +9915,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9438,14 +9950,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9479,14 +9985,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9520,14 +10020,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9561,14 +10055,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9602,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9643,14 +10125,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9684,14 +10160,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9725,14 +10195,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9766,14 +10230,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9807,14 +10265,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9848,14 +10300,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9889,14 +10335,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9930,14 +10370,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9971,14 +10405,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10012,14 +10440,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10053,14 +10475,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10094,14 +10510,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10135,14 +10545,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10176,14 +10580,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10217,14 +10615,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10258,14 +10650,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10299,14 +10685,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10340,14 +10720,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10381,14 +10755,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10422,14 +10790,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10463,14 +10825,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10504,14 +10860,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10545,14 +10895,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10586,14 +10930,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10627,14 +10965,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10668,14 +11000,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10709,14 +11035,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10750,14 +11070,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10791,14 +11105,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10832,14 +11140,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10873,14 +11175,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10914,14 +11210,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10955,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10996,14 +11280,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11037,14 +11315,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11078,14 +11350,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11119,14 +11385,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11160,14 +11420,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11201,14 +11455,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11242,14 +11490,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11283,14 +11525,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11324,14 +11560,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11365,14 +11595,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11406,14 +11630,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11447,14 +11665,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11488,14 +11700,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11529,14 +11735,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11570,14 +11770,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11611,14 +11805,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11652,14 +11840,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11693,14 +11875,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11734,14 +11910,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11775,14 +11945,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11816,14 +11980,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11857,14 +12015,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11898,14 +12050,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11939,14 +12085,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11980,14 +12120,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12021,14 +12155,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12062,14 +12190,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12103,14 +12225,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12144,14 +12260,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12185,14 +12295,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12226,14 +12330,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12267,14 +12365,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12308,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12349,14 +12435,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12390,14 +12470,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12431,14 +12505,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12472,14 +12540,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12513,14 +12575,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12554,14 +12610,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12595,14 +12645,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12636,14 +12680,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12677,14 +12715,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12718,14 +12750,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12759,14 +12785,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12800,14 +12820,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12841,14 +12855,8 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12882,14 +12890,8 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12923,14 +12925,8 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12964,14 +12960,8 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13005,14 +12995,8 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13046,14 +13030,8 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13087,14 +13065,8 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13128,14 +13100,8 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13169,14 +13135,8 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13210,14 +13170,8 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13251,14 +13205,8 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13292,14 +13240,8 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13333,14 +13275,8 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13374,14 +13310,8 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13415,14 +13345,8 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13456,14 +13380,8 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13497,14 +13415,8 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13538,14 +13450,8 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13579,14 +13485,8 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13620,14 +13520,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13661,14 +13555,8 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13702,14 +13590,8 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13743,14 +13625,8 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13784,14 +13660,8 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13825,14 +13695,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13866,14 +13730,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13907,14 +13765,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13948,14 +13800,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13989,14 +13835,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14030,14 +13870,8 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14071,14 +13905,8 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14112,14 +13940,8 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14153,14 +13975,8 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14194,14 +14010,8 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14235,14 +14045,8 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14276,14 +14080,8 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14317,14 +14115,8 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14358,14 +14150,8 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14399,14 +14185,8 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14440,14 +14220,8 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14481,14 +14255,8 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14522,14 +14290,8 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14563,14 +14325,8 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14604,14 +14360,8 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14645,14 +14395,8 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14686,14 +14430,8 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14727,14 +14465,8 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14768,14 +14500,8 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14809,14 +14535,8 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14850,14 +14570,8 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14891,14 +14605,8 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14932,14 +14640,8 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14973,14 +14675,8 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15014,14 +14710,8 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15055,14 +14745,8 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15096,14 +14780,8 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15137,14 +14815,8 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15178,14 +14850,8 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15219,14 +14885,8 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15260,14 +14920,8 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15301,14 +14955,8 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15342,14 +14990,8 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15383,14 +15025,8 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15424,14 +15060,8 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15465,14 +15095,8 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15506,14 +15130,8 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15547,14 +15165,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15585,19 +15197,13 @@
         <v>0</v>
       </c>
       <c r="I397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
-        <v>1.011620498614959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -16816,7 +16422,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
@@ -16851,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest XLM.xlsx
+++ b/BackTest/2019-10-27 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1855625.4381</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1855625.4381</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1909539.896</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1890819.3382</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1903319.3382</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1900647.2544</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1892621.4463</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1892621.4463</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1892621.4463</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1892661.4463</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1868225.6344</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1867927.4213</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1863877.1778</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1516415.634700001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,10 +1705,14 @@
         <v>1517873.819000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1738,11 +1742,19 @@
         <v>1515873.819000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1783,19 @@
         <v>1515888.928800001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1806,8 +1826,12 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>72.8</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1837,11 +1861,19 @@
         <v>1510412.552700001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1902,19 @@
         <v>1510549.351605601</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1936,7 +1976,7 @@
         <v>1499094.351605601</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,10 +2009,14 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2002,11 +2046,19 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2087,19 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,10 +2128,14 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>72.40000000000001</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2101,11 +2165,19 @@
         <v>1497062.451605601</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2206,19 @@
         <v>1497062.451605601</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,10 +2247,14 @@
         <v>1497074.468105601</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>72.3</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2200,11 +2284,19 @@
         <v>1497074.468105601</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2325,19 @@
         <v>1452136.165405601</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2366,19 @@
         <v>1491218.670205601</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2407,19 @@
         <v>1491218.670205601</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J58" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2448,19 @@
         <v>1491218.670205601</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2489,19 @@
         <v>1508018.671605601</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J60" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2530,19 @@
         <v>1508018.671605601</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2574,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2613,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2652,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2691,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2727,19 @@
         <v>1543205.765805601</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2771,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2810,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2849,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3005,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3044,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3083,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3122,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3161,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3200,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3239,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3356,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3473,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3512,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3551,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3629,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3707,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3746,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3785,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3824,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3863,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3941,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4019,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4097,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4175,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4214,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4253,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4331,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4370,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4409,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4487,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4565,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4604,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4682,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4721,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4877,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4955,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5072,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5423,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,13 +5576,19 @@
         <v>24887209.0034056</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>1.000532503457815</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
@@ -5038,7 +5648,7 @@
         <v>24888816.8172056</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5714,7 @@
         <v>23842250.71520561</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5846,7 @@
         <v>20335162.60610561</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5368,7 +5978,7 @@
         <v>18315846.60063365</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5500,7 +6110,7 @@
         <v>18317045.18043365</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5566,7 +6176,7 @@
         <v>20480179.59163365</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +6242,7 @@
         <v>20516920.47493365</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +6275,7 @@
         <v>18082374.67603365</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +6308,7 @@
         <v>18081374.67603365</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +6374,7 @@
         <v>21731052.28800919</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +6440,7 @@
         <v>17488067.28800919</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6473,7 @@
         <v>17488067.28800919</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +6539,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6028,7 +6638,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6671,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6704,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6737,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6770,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6803,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6836,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6869,7 @@
         <v>17365566.85750918</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6902,7 @@
         <v>17329570.07180918</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -9229,10 +9839,14 @@
         <v>10469947.80770133</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>72</v>
+      </c>
+      <c r="J268" t="n">
+        <v>72</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
@@ -9262,11 +9876,19 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>72</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9917,19 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J270" t="n">
+        <v>72</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,10 +9958,14 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J271" t="n">
+        <v>72.09999999999999</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
@@ -9361,7 +9995,7 @@
         <v>10200665.42710133</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>72.09999999999999</v>
@@ -9369,7 +10003,11 @@
       <c r="J272" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +10036,7 @@
         <v>10762035.41030133</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>72.2</v>
@@ -9439,15 +10077,17 @@
         <v>10751429.87170133</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>72.40000000000001</v>
+      </c>
       <c r="J274" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -9481,8 +10121,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9514,8 +10160,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9547,8 +10199,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9580,8 +10238,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9613,8 +10277,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9646,8 +10316,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9679,8 +10355,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9712,8 +10394,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9745,8 +10433,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9778,8 +10472,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9811,8 +10511,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9844,8 +10550,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9877,8 +10589,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9910,8 +10628,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9943,8 +10667,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9976,8 +10706,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10009,8 +10745,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10042,8 +10784,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10072,15 +10820,17 @@
         <v>13291816.99160133</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>73.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10109,17 +10859,15 @@
         <v>13262583.19220133</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L294" t="n">
@@ -10150,13 +10898,11 @@
         <v>14612583.19220133</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10191,13 +10937,11 @@
         <v>14625961.84960133</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10232,13 +10976,11 @@
         <v>14624040.29960133</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10273,13 +11015,11 @@
         <v>14624040.29960133</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10314,13 +11054,11 @@
         <v>14624040.29960133</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10355,13 +11093,11 @@
         <v>14628910.76080133</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10396,13 +11132,11 @@
         <v>14628910.76080133</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10441,7 +11175,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10480,7 +11214,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10519,7 +11253,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10558,7 +11292,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10597,7 +11331,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10636,7 +11370,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10675,7 +11409,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10714,7 +11448,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10753,7 +11487,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10792,7 +11526,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10831,7 +11565,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10870,7 +11604,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10909,7 +11643,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10948,7 +11682,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -10987,7 +11721,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11026,7 +11760,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11065,7 +11799,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11104,7 +11838,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11143,7 +11877,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11182,7 +11916,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11221,7 +11955,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11260,7 +11994,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11299,7 +12033,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11338,7 +12072,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11377,7 +12111,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11416,7 +12150,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11455,7 +12189,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11494,7 +12228,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11533,7 +12267,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11572,7 +12306,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11611,7 +12345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11650,7 +12384,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11689,7 +12423,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11728,7 +12462,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11767,7 +12501,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11806,7 +12540,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11845,7 +12579,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11884,7 +12618,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11923,7 +12657,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11962,7 +12696,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12001,7 +12735,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12040,7 +12774,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12079,7 +12813,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12118,7 +12852,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12157,7 +12891,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12196,7 +12930,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12235,7 +12969,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12274,7 +13008,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12313,7 +13047,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12352,7 +13086,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12391,7 +13125,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12430,7 +13164,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12469,7 +13203,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12508,7 +13242,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12547,7 +13281,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12586,7 +13320,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12625,7 +13359,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12664,7 +13398,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12703,7 +13437,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12742,7 +13476,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12781,7 +13515,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12820,7 +13554,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12859,7 +13593,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12898,7 +13632,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12937,7 +13671,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12976,7 +13710,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13015,7 +13749,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13054,7 +13788,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13093,7 +13827,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13132,7 +13866,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13171,7 +13905,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13210,7 +13944,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13249,7 +13983,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13288,7 +14022,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13327,7 +14061,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13366,7 +14100,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13405,7 +14139,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13444,7 +14178,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13483,7 +14217,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13522,7 +14256,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13561,7 +14295,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13600,7 +14334,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13639,7 +14373,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13678,7 +14412,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13717,7 +14451,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13756,7 +14490,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13795,7 +14529,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13834,7 +14568,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13873,7 +14607,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13912,7 +14646,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13951,7 +14685,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13990,7 +14724,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14029,7 +14763,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14068,7 +14802,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14107,7 +14841,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14146,7 +14880,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14185,7 +14919,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14224,7 +14958,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14263,7 +14997,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14302,7 +15036,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14341,7 +15075,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14380,7 +15114,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14415,19 +15149,19 @@
         <v>14090698.32507463</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L404" t="n">
-        <v>0.9977359781121752</v>
+        <v>1</v>
       </c>
       <c r="M404" t="inlineStr"/>
     </row>
@@ -14454,11 +15188,17 @@
         <v>14057656.02667463</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14487,11 +15227,17 @@
         <v>14057656.02667463</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14523,8 +15269,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14556,8 +15308,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14589,8 +15347,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14622,8 +15386,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14655,8 +15425,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14688,8 +15464,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14721,8 +15503,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14754,8 +15542,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14787,8 +15581,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14820,8 +15620,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14853,8 +15659,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14886,8 +15698,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14919,8 +15737,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14952,8 +15776,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14985,8 +15815,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15018,8 +15854,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15051,8 +15893,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15084,8 +15932,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15117,8 +15971,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15150,8 +16010,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15183,8 +16049,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15216,8 +16088,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15249,8 +16127,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15282,8 +16166,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15315,8 +16205,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15348,8 +16244,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15381,8 +16283,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15414,8 +16322,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15447,8 +16361,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15480,8 +16400,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15513,8 +16439,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15546,8 +16478,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15579,8 +16517,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15612,8 +16556,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15645,8 +16595,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15678,8 +16634,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15711,8 +16673,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15744,8 +16712,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15777,8 +16751,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15810,8 +16790,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15843,8 +16829,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15876,8 +16868,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15906,11 +16904,17 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15942,8 +16946,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15972,11 +16982,17 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16005,11 +17021,17 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16038,11 +17060,17 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16074,8 +17102,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16107,8 +17141,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16140,8 +17180,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16173,8 +17219,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16206,8 +17258,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16236,11 +17294,17 @@
         <v>14042761.8559402</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16272,8 +17336,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16305,8 +17375,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16338,8 +17414,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16371,8 +17453,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16404,8 +17492,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16437,8 +17531,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16470,8 +17570,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16503,8 +17609,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16536,8 +17648,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16569,8 +17687,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16602,8 +17726,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16635,8 +17765,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16668,8 +17804,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16701,8 +17843,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16734,8 +17882,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16767,8 +17921,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16800,8 +17960,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16833,8 +17999,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16866,8 +18038,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16899,8 +18077,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16932,8 +18116,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16965,8 +18155,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16998,8 +18194,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17031,8 +18233,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17064,8 +18272,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17097,8 +18311,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17130,8 +18350,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17163,8 +18389,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17196,8 +18428,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17229,8 +18467,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17262,8 +18506,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17292,11 +18542,17 @@
         <v>14060203.0417402</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17325,13 +18581,19 @@
         <v>14055999.7561402</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L492" t="n">
-        <v>1</v>
+        <v>1.014417475728155</v>
       </c>
       <c r="M492" t="inlineStr"/>
     </row>
@@ -17424,7 +18686,7 @@
         <v>14084303.1577402</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17457,7 +18719,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17490,7 +18752,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17523,7 +18785,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17556,7 +18818,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17589,7 +18851,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17622,7 +18884,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17655,7 +18917,7 @@
         <v>14113599.4792402</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17688,7 +18950,7 @@
         <v>14112931.4792402</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17721,7 +18983,7 @@
         <v>14100923.1166402</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18051,7 +19313,7 @@
         <v>14043256.7023402</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18117,7 +19379,7 @@
         <v>14027556.9221402</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18150,7 +19412,7 @@
         <v>14027556.9221402</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18183,7 +19445,7 @@
         <v>13966682.9737402</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18260,6 +19522,6 @@
       <c r="M520" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest XLM.xlsx
+++ b/BackTest/2019-10-27 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1855625.4381</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1855625.4381</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1909539.896</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1890819.3382</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1903319.3382</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1900647.2544</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1892621.4463</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1892621.4463</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1892621.4463</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1892661.4463</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1868225.6344</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1867927.4213</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1863877.1778</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1705,14 +1705,10 @@
         <v>1517873.819000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1742,19 +1738,11 @@
         <v>1515873.819000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1783,19 +1771,11 @@
         <v>1515888.928800001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,14 +1804,10 @@
         <v>1503475.535700001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1861,19 +1837,11 @@
         <v>1510412.552700001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1902,19 +1870,11 @@
         <v>1510549.351605601</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2009,14 +1969,10 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>72.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2046,19 +2002,11 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="J49" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2087,19 +2035,11 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="J50" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2128,14 +2068,10 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>72.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2165,19 +2101,11 @@
         <v>1497062.451605601</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="J52" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2206,19 +2134,11 @@
         <v>1497062.451605601</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2247,14 +2167,10 @@
         <v>1497074.468105601</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2284,19 +2200,11 @@
         <v>1497074.468105601</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2331,13 +2239,9 @@
         <v>72.40000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>72.40000000000001</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2372,7 +2276,7 @@
         <v>72.2</v>
       </c>
       <c r="J57" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2413,7 +2317,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2454,7 +2358,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2495,7 +2399,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2530,13 +2434,11 @@
         <v>1508018.671605601</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>72.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2575,7 +2477,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2614,7 +2516,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2653,7 +2555,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2692,7 +2594,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2727,13 +2629,11 @@
         <v>1543205.765805601</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2772,7 +2672,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2811,7 +2711,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2850,7 +2750,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2889,7 +2789,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2928,7 +2828,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2967,7 +2867,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3006,7 +2906,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3045,7 +2945,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3084,7 +2984,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3123,7 +3023,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3162,7 +3062,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3201,7 +3101,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3240,7 +3140,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3279,7 +3179,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3318,7 +3218,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3357,7 +3257,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3396,7 +3296,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3435,7 +3335,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3474,7 +3374,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3513,7 +3413,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3552,7 +3452,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3591,7 +3491,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3630,7 +3530,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3669,7 +3569,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3708,7 +3608,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3747,7 +3647,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3786,7 +3686,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3825,7 +3725,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3864,7 +3764,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3903,7 +3803,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3942,7 +3842,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3977,19 +3877,19 @@
         <v>12851831.7324056</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>1.004668508287293</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -4016,17 +3916,11 @@
         <v>12851831.7324056</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4055,17 +3949,11 @@
         <v>12846631.7324056</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4094,17 +3982,11 @@
         <v>12845990.6049056</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4133,17 +4015,11 @@
         <v>17258990.6049056</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4172,17 +4048,11 @@
         <v>17258990.6049056</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4211,17 +4081,11 @@
         <v>15588035.7972056</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4250,17 +4114,11 @@
         <v>17940035.7972056</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4289,17 +4147,11 @@
         <v>17935899.8386056</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4331,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4370,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4409,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4448,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4487,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4526,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4565,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4604,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4643,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4682,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4760,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4838,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4877,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4916,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4955,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4994,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5033,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5111,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5189,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5228,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5306,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5345,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5384,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5423,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5462,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5501,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5540,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5576,19 +5236,13 @@
         <v>24887209.0034056</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>1.000532503457815</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
@@ -5648,7 +5302,7 @@
         <v>24888816.8172056</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5714,7 +5368,7 @@
         <v>23842250.71520561</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5846,7 +5500,7 @@
         <v>20335162.60610561</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5978,7 +5632,7 @@
         <v>18315846.60063365</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6110,7 +5764,7 @@
         <v>18317045.18043365</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6176,7 +5830,7 @@
         <v>20480179.59163365</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6242,7 +5896,7 @@
         <v>20516920.47493365</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6275,7 +5929,7 @@
         <v>18082374.67603365</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6308,7 +5962,7 @@
         <v>18081374.67603365</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6374,7 +6028,7 @@
         <v>21731052.28800919</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6440,7 +6094,7 @@
         <v>17488067.28800919</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6539,7 +6193,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6638,7 +6292,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6671,7 +6325,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6704,7 +6358,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6737,7 +6391,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6770,7 +6424,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6803,7 +6457,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6836,7 +6490,7 @@
         <v>17361766.85750918</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6869,7 +6523,7 @@
         <v>17365566.85750918</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6902,7 +6556,7 @@
         <v>17329570.07180918</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -9839,14 +9493,10 @@
         <v>10469947.80770133</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>72</v>
-      </c>
-      <c r="J268" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
@@ -9876,19 +9526,11 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="J269" t="n">
-        <v>72</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9917,19 +9559,11 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J270" t="n">
-        <v>72</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9958,14 +9592,10 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J271" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
@@ -9995,19 +9625,11 @@
         <v>10200665.42710133</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J272" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10036,19 +9658,11 @@
         <v>10762035.41030133</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="J273" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10077,19 +9691,11 @@
         <v>10751429.87170133</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="J274" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10121,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10160,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10199,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10238,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10277,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10316,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10355,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10394,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10433,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10511,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10550,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10589,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10628,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10667,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10745,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10784,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10823,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10862,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10901,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10940,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10979,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11018,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11057,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11096,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11135,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11174,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11213,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11252,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11291,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11330,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11366,17 +10780,11 @@
         <v>18200388.55610133</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11405,17 +10813,11 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11444,17 +10846,11 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11483,17 +10879,11 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11522,17 +10912,11 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11561,17 +10945,11 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11600,17 +10978,11 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11639,17 +11011,11 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11678,17 +11044,11 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11717,17 +11077,11 @@
         <v>18213518.68748985</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11756,17 +11110,11 @@
         <v>18213622.27538985</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11795,17 +11143,11 @@
         <v>15242695.27538985</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11834,17 +11176,11 @@
         <v>15242564.77148985</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11873,17 +11209,11 @@
         <v>15242564.77148985</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11912,17 +11242,11 @@
         <v>15242593.14348985</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11954,14 +11278,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11993,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12032,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12071,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12110,14 +11410,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12149,14 +11443,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12188,14 +11476,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12227,14 +11509,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12266,14 +11542,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12305,14 +11575,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12344,14 +11608,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12383,14 +11641,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12422,14 +11674,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12461,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12500,14 +11740,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12539,14 +11773,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12578,14 +11806,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12617,14 +11839,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12656,14 +11872,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12695,14 +11905,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12734,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12773,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12812,14 +12004,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12851,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12890,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12929,14 +12103,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12968,14 +12136,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13007,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13046,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13085,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13124,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13163,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13202,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13241,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13280,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13319,14 +12433,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13358,14 +12466,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13397,14 +12499,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13436,14 +12532,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13475,14 +12565,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13514,14 +12598,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13553,14 +12631,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13592,14 +12664,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13631,14 +12697,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13670,14 +12730,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13709,14 +12763,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13748,14 +12796,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13787,14 +12829,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13826,14 +12862,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13865,14 +12895,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13904,14 +12928,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13943,14 +12961,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13982,14 +12994,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14021,14 +13027,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14060,14 +13060,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14099,14 +13093,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14138,14 +13126,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14177,14 +13159,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14216,14 +13192,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14255,14 +13225,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14294,14 +13258,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14333,14 +13291,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14372,14 +13324,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14411,14 +13357,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14450,14 +13390,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14489,14 +13423,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14528,14 +13456,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14567,14 +13489,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14606,14 +13522,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14645,14 +13555,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14684,14 +13588,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14723,14 +13621,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14762,14 +13654,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14801,14 +13687,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14840,14 +13720,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14879,14 +13753,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14918,14 +13786,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14957,14 +13819,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14996,14 +13852,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15035,14 +13885,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15074,14 +13918,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15113,14 +13951,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15152,14 +13984,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15191,14 +14017,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15230,14 +14050,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15269,14 +14083,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15308,14 +14116,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15347,14 +14149,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15386,14 +14182,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15425,14 +14215,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15464,14 +14248,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15503,14 +14281,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15542,14 +14314,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15581,14 +14347,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15620,14 +14380,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15659,14 +14413,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15698,14 +14446,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15737,14 +14479,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15776,14 +14512,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15815,14 +14545,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15854,14 +14578,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15893,14 +14611,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15932,14 +14644,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15971,14 +14677,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16010,14 +14710,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16049,14 +14743,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16088,14 +14776,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16127,14 +14809,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16166,14 +14842,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16205,14 +14875,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16244,14 +14908,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16283,14 +14941,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16322,14 +14974,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16361,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16400,14 +15040,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16439,14 +15073,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16478,14 +15106,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16517,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16556,14 +15172,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16595,14 +15205,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16634,14 +15238,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16673,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16712,14 +15304,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16751,14 +15337,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16790,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16829,14 +15403,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16868,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16907,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16946,14 +15502,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16985,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17024,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17063,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17102,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17141,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17180,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17219,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17258,14 +15766,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17297,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17336,14 +15832,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17375,14 +15865,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17414,14 +15898,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17453,14 +15931,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17492,14 +15964,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17531,14 +15997,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17570,14 +16030,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17609,14 +16063,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17648,14 +16096,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17687,14 +16129,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17726,14 +16162,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17765,14 +16195,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17804,14 +16228,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17843,14 +16261,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17882,14 +16294,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17921,14 +16327,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17960,14 +16360,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17999,14 +16393,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18038,14 +16426,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18077,14 +16459,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18116,14 +16492,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18155,14 +16525,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18194,14 +16558,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18233,14 +16591,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18272,14 +16624,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18311,14 +16657,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18350,14 +16690,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18389,14 +16723,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18428,14 +16756,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18467,14 +16789,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18506,14 +16822,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18545,14 +16855,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18581,19 +16885,13 @@
         <v>14055999.7561402</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
-        <v>1.014417475728155</v>
+        <v>1</v>
       </c>
       <c r="M492" t="inlineStr"/>
     </row>
@@ -18686,7 +16984,7 @@
         <v>14084303.1577402</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18719,7 +17017,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18752,7 +17050,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18785,7 +17083,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18818,7 +17116,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18851,7 +17149,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18884,7 +17182,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18917,7 +17215,7 @@
         <v>14113599.4792402</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18950,7 +17248,7 @@
         <v>14112931.4792402</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18983,7 +17281,7 @@
         <v>14100923.1166402</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19522,6 +17820,6 @@
       <c r="M520" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest XLM.xlsx
+++ b/BackTest/2019-10-27 BackTest XLM.xlsx
@@ -616,7 +616,7 @@
         <v>1909539.896</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1890819.3382</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1868225.6344</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1867927.4213</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1863877.1778</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2068,10 +2068,14 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>72.40000000000001</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2101,11 +2105,19 @@
         <v>1497062.451605601</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2146,19 @@
         <v>1497062.451605601</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,10 +2187,14 @@
         <v>1497074.468105601</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>72.3</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2200,11 +2224,19 @@
         <v>1497074.468105601</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2239,9 +2271,13 @@
         <v>72.40000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>72.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2276,7 +2312,7 @@
         <v>72.2</v>
       </c>
       <c r="J57" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2317,7 +2353,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2358,7 +2394,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2399,7 +2435,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2434,11 +2470,13 @@
         <v>1508018.671605601</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>72.5</v>
+      </c>
       <c r="J61" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2473,11 +2511,13 @@
         <v>1563339.686805601</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>72.5</v>
+      </c>
       <c r="J62" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2516,7 +2556,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2555,7 +2595,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2590,11 +2630,13 @@
         <v>1541049.765805601</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J65" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2629,11 +2671,13 @@
         <v>1543205.765805601</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J66" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2668,11 +2712,13 @@
         <v>1543379.600105601</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>72.5</v>
+      </c>
       <c r="J67" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2711,7 +2757,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2750,7 +2796,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2789,7 +2835,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2824,11 +2870,13 @@
         <v>1564185.184505601</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>72.40000000000001</v>
+      </c>
       <c r="J71" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2867,7 +2915,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2906,7 +2954,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2945,7 +2993,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2984,7 +3032,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3023,7 +3071,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3062,7 +3110,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3101,7 +3149,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3140,7 +3188,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3179,7 +3227,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3218,7 +3266,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3257,7 +3305,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3296,7 +3344,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3335,7 +3383,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3374,7 +3422,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3413,7 +3461,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3452,7 +3500,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3491,7 +3539,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3530,7 +3578,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3569,7 +3617,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3608,7 +3656,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3647,7 +3695,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3686,7 +3734,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3725,7 +3773,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3764,7 +3812,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3803,7 +3851,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3842,7 +3890,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3877,19 +3925,19 @@
         <v>12851831.7324056</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.004668508287293</v>
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -3916,11 +3964,17 @@
         <v>12851831.7324056</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4003,17 @@
         <v>12846631.7324056</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4042,17 @@
         <v>12845990.6049056</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4081,17 @@
         <v>17258990.6049056</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4120,17 @@
         <v>17258990.6049056</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4159,17 @@
         <v>15588035.7972056</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4198,17 @@
         <v>17940035.7972056</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4237,17 @@
         <v>17935899.8386056</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4279,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4318,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4357,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4396,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4435,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4474,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4513,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4552,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4591,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4630,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4669,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4708,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4747,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4786,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4825,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4864,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4903,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4942,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4981,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5020,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5059,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5137,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5176,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5215,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5254,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5293,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5332,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5371,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5410,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5449,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5488,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5527,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5566,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5605,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5644,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5683,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5722,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5761,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5800,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5839,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5878,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5917,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5956,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5995,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6034,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6073,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6112,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6151,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6190,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6229,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6268,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6307,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6346,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6385,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6424,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6463,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6502,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6541,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6577,17 @@
         <v>17488067.28800919</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6619,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6658,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6697,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6736,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6775,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6814,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6853,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6892,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6931,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6970,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7087,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7126,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7165,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7204,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7243,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7282,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7321,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7360,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7399,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7438,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7477,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7516,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7555,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7594,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7633,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7672,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7711,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7750,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7789,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7828,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7867,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7906,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7945,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7984,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +8023,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +8062,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8101,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8140,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8179,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8218,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8257,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8296,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8413,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8803,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8842,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8881,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8920,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8959,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8998,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +9037,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +9076,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +9115,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +9154,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +9193,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9232,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9271,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +9310,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9349,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +9388,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +9427,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +9466,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +9505,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9544,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9583,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9622,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9661,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9700,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9739,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9778,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9817,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9856,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9895,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9934,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9973,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +10012,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +10051,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +10090,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +10129,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +10168,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +10207,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +10246,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +10285,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +10324,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +10363,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +10402,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +10441,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +10480,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +10519,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +10555,19 @@
         <v>10469947.80770133</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>72</v>
+      </c>
+      <c r="J268" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +10596,19 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +10637,19 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J270" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +10678,19 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J271" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +10719,19 @@
         <v>10200665.42710133</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J272" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10760,19 @@
         <v>10762035.41030133</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="J273" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10801,19 @@
         <v>10751429.87170133</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J274" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10842,19 @@
         <v>10751429.87170133</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J275" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10886,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10925,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10964,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +11003,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +11042,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +11081,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +11120,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +11159,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +11198,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +11237,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +11276,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +11315,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +11354,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +11393,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +11432,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +11471,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +11510,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +11549,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +11588,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +11627,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +11666,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +11705,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +11744,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +11783,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +11822,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +11861,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +11900,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +11939,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11978,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +12017,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +12056,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +12092,17 @@
         <v>18200388.55610133</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +12131,17 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +12170,17 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +12209,17 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +12248,17 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +12287,17 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +12326,17 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +12365,17 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +12404,17 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +12443,17 @@
         <v>18213518.68748985</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +12482,17 @@
         <v>18213622.27538985</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +12521,17 @@
         <v>15242695.27538985</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +12560,17 @@
         <v>15242564.77148985</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +12599,17 @@
         <v>15242564.77148985</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +12638,17 @@
         <v>15242593.14348985</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +12680,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +12719,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +12758,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +12797,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +12836,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12875,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +12914,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +12953,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +12992,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +13031,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +13070,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +13109,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +13148,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +13187,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +13226,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +13265,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +13304,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +13343,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +13382,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +13421,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +13460,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +13499,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +13538,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +13577,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +13616,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +13655,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +13694,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +13733,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +13772,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +13811,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +13850,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +13889,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +13928,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +13967,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +14006,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +14045,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +14084,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +14123,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +14162,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +14201,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +14240,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +14279,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +14318,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +14357,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +14396,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +14435,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +14474,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +14513,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +14552,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +14591,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +14630,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +14669,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +14708,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +14747,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +14786,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +14825,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +14864,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +14903,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +14942,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +14981,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +15020,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +15059,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +15098,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +15137,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +15176,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13423,8 +15215,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13456,8 +15254,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13489,8 +15293,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13522,8 +15332,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13555,8 +15371,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13588,8 +15410,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13621,8 +15449,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13654,8 +15488,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13687,8 +15527,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13720,8 +15566,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13753,8 +15605,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13786,8 +15644,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13819,8 +15683,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13852,8 +15722,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13885,8 +15761,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13918,8 +15800,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13951,8 +15839,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13981,13 +15875,19 @@
         <v>14090698.32507463</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L404" t="n">
-        <v>1</v>
+        <v>1.008831258644537</v>
       </c>
       <c r="M404" t="inlineStr"/>
     </row>
@@ -15433,7 +17333,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15466,7 +17366,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15499,7 +17399,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15532,7 +17432,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15565,7 +17465,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15598,7 +17498,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15631,7 +17531,7 @@
         <v>14098136.9867402</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15664,7 +17564,7 @@
         <v>14097728.4192402</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15697,7 +17597,7 @@
         <v>14123527.0324402</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15730,7 +17630,7 @@
         <v>14116695.0816402</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15763,7 +17663,7 @@
         <v>14042761.8559402</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15796,7 +17696,7 @@
         <v>14042761.8559402</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15829,7 +17729,7 @@
         <v>14249781.5591402</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15862,7 +17762,7 @@
         <v>14172816.3511402</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15895,7 +17795,7 @@
         <v>14228541.5103402</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15928,7 +17828,7 @@
         <v>14229175.1151402</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15961,7 +17861,7 @@
         <v>14230915.7088402</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15994,7 +17894,7 @@
         <v>14167824.3088402</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16027,7 +17927,7 @@
         <v>14167824.3088402</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16060,7 +17960,7 @@
         <v>14015879.3360402</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16093,7 +17993,7 @@
         <v>14017378.3810402</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16126,7 +18026,7 @@
         <v>13977970.6759402</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16159,7 +18059,7 @@
         <v>13977970.6759402</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16291,7 +18191,7 @@
         <v>14058221.4014402</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16324,7 +18224,7 @@
         <v>13951514.4428402</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16357,7 +18257,7 @@
         <v>13951514.4428402</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16456,7 +18356,7 @@
         <v>14074096.6730402</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16489,7 +18389,7 @@
         <v>14147507.8153402</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16522,7 +18422,7 @@
         <v>14007780.8755402</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16555,7 +18455,7 @@
         <v>14012176.2367402</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16588,7 +18488,7 @@
         <v>14012176.2367402</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16621,7 +18521,7 @@
         <v>13960361.3305402</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16654,7 +18554,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16687,7 +18587,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16720,7 +18620,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16753,7 +18653,7 @@
         <v>13990704.9916402</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16786,7 +18686,7 @@
         <v>14069081.4376402</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16819,7 +18719,7 @@
         <v>14060203.0417402</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16852,7 +18752,7 @@
         <v>14060203.0417402</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16885,7 +18785,7 @@
         <v>14055999.7561402</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16918,7 +18818,7 @@
         <v>14079358.1071402</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16951,7 +18851,7 @@
         <v>14084303.1577402</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16984,7 +18884,7 @@
         <v>14084303.1577402</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17017,7 +18917,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17050,7 +18950,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17083,7 +18983,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17116,7 +19016,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17149,7 +19049,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17182,7 +19082,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17215,7 +19115,7 @@
         <v>14113599.4792402</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17248,7 +19148,7 @@
         <v>14112931.4792402</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17281,7 +19181,7 @@
         <v>14100923.1166402</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17314,7 +19214,7 @@
         <v>14137119.7686402</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17347,7 +19247,7 @@
         <v>14106277.4516402</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17380,7 +19280,7 @@
         <v>14106277.4516402</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17413,7 +19313,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17446,7 +19346,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17479,7 +19379,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17545,7 +19445,7 @@
         <v>14094529.7189402</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
